--- a/data/trans_bre/P1432-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1432-Dificultad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4902367833635511</v>
+        <v>-0.4778178460996212</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1459650336442739</v>
+        <v>0.02617493652837239</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.801583514583765</v>
+        <v>0.8512696791501758</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2126406255534909</v>
+        <v>-0.1982557611077786</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.119785904483811</v>
+        <v>-0.02916145105526683</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.982578291626842</v>
+        <v>1.117602646656481</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.676925513081502</v>
+        <v>2.618147617500727</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.086728501374355</v>
+        <v>2.217808262142717</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.522259483250612</v>
+        <v>2.531815951517947</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2.374491975675579</v>
+        <v>2.365288233756005</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.303583696701195</v>
+        <v>3.564091215232646</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>20.67827496060293</v>
+        <v>22.2901068192674</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.281100549396917</v>
+        <v>-1.354364095301292</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.1058443570076033</v>
+        <v>-0.07578902260288771</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08876682562255762</v>
+        <v>0.1133201049966819</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6992544794781274</v>
+        <v>-0.725946972380995</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5304496315646205</v>
+        <v>-0.4540643093246404</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1813643152605853</v>
+        <v>-0.06390780466054678</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5058304446458268</v>
+        <v>0.4920830877483426</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.652626034648183</v>
+        <v>1.616693101936888</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.771636619805939</v>
+        <v>1.809517951028827</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7405675174006363</v>
+        <v>0.5964521859599247</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>12.91424143126266</v>
+        <v>10.43624228493224</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>11.72276416669351</v>
+        <v>12.53075610515645</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8214438832693403</v>
+        <v>-0.740147479173336</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02833279484994041</v>
+        <v>-0.006293711284377865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.405592060291507</v>
+        <v>-1.412819794174466</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.8005200786599308</v>
+        <v>-0.7542018473065307</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.176836563242028</v>
+        <v>-0.2817278609292951</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>-1</v>
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6411752737709798</v>
+        <v>0.6265281917910964</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.997756494801439</v>
+        <v>2.069339833793567</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2455535626945548</v>
+        <v>0.1471528300685133</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.58021256375323</v>
+        <v>1.748352917193321</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>11.76229758134231</v>
+        <v>12.61606513488421</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.009752440694452</v>
+        <v>0.9563189655485539</v>
       </c>
     </row>
     <row r="13">
@@ -884,20 +884,20 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2092450301704428</v>
+        <v>0.1943877403445295</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.1600150871458548</v>
+        <v>-0.06325828470351234</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5645356843097629</v>
+        <v>0.454568127993298</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
-        <v>-0.4145749348953429</v>
+        <v>-0.3809396532612429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.01440325137751438</v>
+        <v>0.01989690525748071</v>
       </c>
     </row>
     <row r="15">
@@ -908,18 +908,18 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.456640159972626</v>
+        <v>3.33420840431015</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.600947623487443</v>
+        <v>2.800873059934288</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.86746298646809</v>
+        <v>3.996768631802729</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>20.04526489178273</v>
+        <v>26.62077562103472</v>
       </c>
     </row>
     <row r="16">
@@ -960,22 +960,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1626995588598207</v>
+        <v>-0.1065659644826572</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4650270424484191</v>
+        <v>0.4334685051483284</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4750122633855047</v>
+        <v>0.4609552342602575</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1332912896040225</v>
+        <v>-0.09143526533852983</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4322627508478619</v>
+        <v>0.449958281004176</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6174244391710214</v>
+        <v>0.5687697048450354</v>
       </c>
     </row>
     <row r="18">
@@ -986,22 +986,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9525511888162443</v>
+        <v>0.9933695346930927</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.516695168295339</v>
+        <v>1.523535580384933</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.484027309856153</v>
+        <v>1.45557362838011</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.069176025871611</v>
+        <v>1.164427519722051</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.261841588914743</v>
+        <v>3.541524895854833</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.997870959796725</v>
+        <v>3.936942741706067</v>
       </c>
     </row>
     <row r="19">
